--- a/uploads/Taag Sheet Upload.xlsx
+++ b/uploads/Taag Sheet Upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>Anurag</t>
+  </si>
+  <si>
+    <t>Someone Beautiful</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Adarsh Honda</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
   </si>
 </sst>
 </file>
@@ -339,7 +363,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="16.88"/>
     <col customWidth="1" min="3" max="3" width="31.75"/>
+    <col customWidth="1" min="10" max="10" width="15.0"/>
+    <col customWidth="1" min="11" max="11" width="17.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,6 +474,41 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000000.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.87654321E9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/uploads/Taag Sheet Upload.xlsx
+++ b/uploads/Taag Sheet Upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>email</t>
   </si>
   <si>
-    <t>Anurag Pal</t>
-  </si>
-  <si>
-    <t>Tech, Entertainment</t>
+    <t>averageViews</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Person 1</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
   <si>
     <t>English, Hindi</t>
   </si>
   <si>
-    <t>macro</t>
+    <t>micro</t>
   </si>
   <si>
     <t>Male</t>
@@ -64,56 +70,68 @@
     <t>Indore</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/warikoo</t>
+  </si>
+  <si>
+    <t>Person 2</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>Taag</t>
   </si>
   <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>Random person</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>English, Gujrati</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
     <t>Shishir</t>
   </si>
   <si>
     <t>test@email.com</t>
-  </si>
-  <si>
-    <t>Shishir Tiwari</t>
-  </si>
-  <si>
-    <t>Tech, Cricket</t>
-  </si>
-  <si>
-    <t>Dewas</t>
-  </si>
-  <si>
-    <t>Anurag</t>
-  </si>
-  <si>
-    <t>Someone Beautiful</t>
-  </si>
-  <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>mega</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Adarsh Honda</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -124,6 +142,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,12 +167,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,6 +409,7 @@
     <col customWidth="1" min="3" max="3" width="31.75"/>
     <col customWidth="1" min="10" max="10" width="15.0"/>
     <col customWidth="1" min="11" max="11" width="17.88"/>
+    <col customWidth="1" min="13" max="13" width="27.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,113 +446,177 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>150000.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>22550.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4">
         <v>9.87654321E9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>564000.0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>104000.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.87654321E9</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
-        <v>250000.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="L3" s="3">
+        <v>456000.0</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.87654321E9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1000000.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2456900.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4">
         <v>9.87654321E9</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2400000.0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId2" ref="M3"/>
+    <hyperlink r:id="rId3" ref="M4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>